--- a/design/D_等级.xlsx
+++ b/design/D_等级.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="等级" sheetId="1" r:id="rId1"/>
+    <sheet name="等级" sheetId="7" r:id="rId1"/>
     <sheet name="星级" sheetId="3" r:id="rId2"/>
     <sheet name="卡池" sheetId="2" r:id="rId3"/>
     <sheet name="野怪爆出" sheetId="4" r:id="rId4"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
   <si>
     <t>output</t>
   </si>
@@ -72,123 +72,131 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>lottery_ratio(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>up_star(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0, 3, 3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级下一星级所需(下标为星级-1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 3, 8]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 14, 42]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>candidate_list(array)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>候选列表, 后续不断累加的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单个卡牌数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>per(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[65, 30, 5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[37, 35, 25, 3]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5, 10, 20, 40, 25]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 3, 5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2, 4, 15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3, 5, 24]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4, 6, 33]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1, 2, 12, 50, 35]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[9, 15, 30, 30, 16]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15, 25, 35, 20, 5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[19, 30, 35, 15, 1]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25, 40, 30, 5]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[55, 30, 15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lv(int)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>卡池概率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lottery_ratio(array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[100]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>费率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>up_star(array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0, 3, 3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级下一星级所需(下标为星级-1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell(array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 3, 8]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 14, 42]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>candidate_list(array)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>候选列表, 后续不断累加的</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个卡牌数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>per(int)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[65, 30, 5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[37, 35, 25, 3]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[5, 10, 20, 40, 25]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 3, 5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[2, 4, 15]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[3, 5, 24]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4, 6, 33]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1, 2, 12, 50, 35]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[9, 15, 30, 30, 16]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[15, 25, 35, 20, 5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[19, 30, 35, 15, 1]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[25, 40, 30, 5]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[55, 30, 15]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -568,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -649,12 +657,12 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -663,12 +671,12 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -677,7 +685,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -691,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -705,7 +713,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -719,7 +727,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -733,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -747,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -761,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -775,7 +783,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -789,7 +797,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -803,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -817,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -831,7 +839,7 @@
         <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +882,7 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -915,10 +923,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -926,10 +934,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -937,10 +945,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -948,10 +956,10 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -959,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -970,10 +978,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -981,10 +989,10 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -992,10 +1000,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1003,10 +1011,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1020,7 +1028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -1088,10 +1096,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1099,10 +1107,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1110,10 +1118,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1121,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1132,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1143,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1154,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1165,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1176,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1187,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1198,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1209,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1220,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1231,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>4</v>
